--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="408" windowWidth="22692" windowHeight="8220"/>
+    <workbookView xWindow="290" yWindow="410" windowWidth="22690" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="136">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>SSC_EndMon</t>
+  </si>
+  <si>
+    <t>MethodDescriptionText</t>
   </si>
 </sst>
 </file>
@@ -759,18 +762,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -778,7 +781,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -786,7 +789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -794,7 +797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -802,7 +805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -810,7 +813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -818,7 +821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -826,7 +829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -834,7 +837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -842,7 +845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -850,7 +853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -858,7 +861,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -866,7 +869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -874,7 +877,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -882,7 +885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -890,7 +893,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -898,7 +901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -906,7 +909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -914,7 +917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -922,7 +925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -930,7 +933,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -938,7 +941,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -946,7 +949,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -954,7 +957,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -962,7 +965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -970,7 +973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -978,7 +981,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -986,7 +989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -994,7 +997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -1146,752 +1149,761 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>123</v>
       </c>
-      <c r="B48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>36</v>
       </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>110</v>
       </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>111</v>
       </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>37</v>
       </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>124</v>
       </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>40</v>
       </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>41</v>
       </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>42</v>
       </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>104</v>
       </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>106</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>133</v>
       </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>134</v>
       </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>43</v>
       </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>44</v>
       </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>45</v>
       </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>46</v>
       </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>47</v>
       </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>48</v>
       </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>49</v>
       </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>51</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>52</v>
       </c>
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>53</v>
       </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>54</v>
       </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>55</v>
       </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>56</v>
       </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>57</v>
       </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>58</v>
       </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>59</v>
       </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>60</v>
       </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>61</v>
       </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>62</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>126</v>
       </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>127</v>
       </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>128</v>
       </c>
-      <c r="B92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>129</v>
       </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>130</v>
       </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>131</v>
       </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>63</v>
       </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>64</v>
       </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>65</v>
       </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>66</v>
       </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>67</v>
       </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>68</v>
       </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>69</v>
       </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>70</v>
       </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>74</v>
       </c>
-      <c r="B104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>75</v>
       </c>
-      <c r="B105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>76</v>
       </c>
-      <c r="B106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>77</v>
       </c>
-      <c r="B107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>0</v>
       </c>
-      <c r="B108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>78</v>
       </c>
-      <c r="B109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>1</v>
       </c>
-      <c r="B110" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>2</v>
       </c>
-      <c r="B111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>79</v>
       </c>
-      <c r="B112" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>105</v>
       </c>
-      <c r="B113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>81</v>
       </c>
-      <c r="B114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>82</v>
       </c>
-      <c r="B115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>83</v>
       </c>
-      <c r="B116" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>10</v>
       </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>11</v>
       </c>
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>84</v>
       </c>
-      <c r="B120" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>85</v>
       </c>
-      <c r="B121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>86</v>
       </c>
-      <c r="B122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>23</v>
       </c>
-      <c r="B123" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>24</v>
       </c>
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>87</v>
       </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>88</v>
       </c>
-      <c r="B126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>89</v>
       </c>
-      <c r="B127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>90</v>
       </c>
-      <c r="B128" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>14</v>
       </c>
-      <c r="B129" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>91</v>
       </c>
-      <c r="B130" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>92</v>
       </c>
-      <c r="B131" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B132" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>93</v>
       </c>
-      <c r="B132" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>94</v>
       </c>
-      <c r="B133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>95</v>
       </c>
-      <c r="B134" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>96</v>
       </c>
-      <c r="B135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>97</v>
       </c>
-      <c r="B136" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>98</v>
       </c>
-      <c r="B137" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>99</v>
       </c>
-      <c r="B138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>100</v>
       </c>
-      <c r="B139" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>101</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1903,7 +1915,7 @@
       <selection activeCell="AK2" sqref="A2:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2029,7 +2041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="408" windowWidth="22692" windowHeight="8220"/>
+    <workbookView xWindow="290" yWindow="410" windowWidth="22690" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="139">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>SSC_EndMon</t>
+  </si>
+  <si>
+    <t>CriterionType</t>
+  </si>
+  <si>
+    <t>CriterionLabel</t>
+  </si>
+  <si>
+    <t>AsmntAggFun</t>
+  </si>
+  <si>
+    <t>SSC_MLID</t>
   </si>
 </sst>
 </file>
@@ -759,18 +771,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -778,7 +790,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -786,7 +798,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -794,7 +806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -802,7 +814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -810,7 +822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -818,7 +830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -826,7 +838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -834,7 +846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -842,7 +854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -850,7 +862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -858,7 +870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -866,7 +878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -874,7 +886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -882,7 +894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -890,7 +902,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -898,7 +910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -906,7 +918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -914,7 +926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -922,7 +934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -930,7 +942,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -938,7 +950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -946,7 +958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -954,7 +966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -962,7 +974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -970,7 +982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -978,7 +990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -986,7 +998,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1074,7 +1086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1106,7 +1118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1122,7 +1134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -1186,7 +1198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -1194,7 +1206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -1202,7 +1214,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -1210,7 +1222,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1226,7 +1238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -1234,7 +1246,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -1282,7 +1294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -1306,587 +1318,627 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>133</v>
       </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>134</v>
       </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>43</v>
       </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>44</v>
       </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>45</v>
       </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>46</v>
       </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>47</v>
       </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>48</v>
       </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>49</v>
       </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>50</v>
       </c>
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>51</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>52</v>
       </c>
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>53</v>
       </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>54</v>
       </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>55</v>
       </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>57</v>
       </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>58</v>
       </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>59</v>
       </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>60</v>
       </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>61</v>
       </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>62</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>126</v>
       </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>127</v>
       </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>128</v>
       </c>
-      <c r="B92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>129</v>
       </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>130</v>
       </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>131</v>
       </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>63</v>
       </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>64</v>
       </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>65</v>
       </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>66</v>
       </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>67</v>
       </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>68</v>
       </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>69</v>
       </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>70</v>
       </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>74</v>
       </c>
-      <c r="B104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>75</v>
       </c>
-      <c r="B105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B110" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>76</v>
       </c>
-      <c r="B106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>77</v>
       </c>
-      <c r="B107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>0</v>
       </c>
-      <c r="B108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>78</v>
       </c>
-      <c r="B109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>1</v>
       </c>
-      <c r="B110" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>2</v>
       </c>
-      <c r="B111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>79</v>
       </c>
-      <c r="B112" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>105</v>
       </c>
-      <c r="B113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>81</v>
       </c>
-      <c r="B114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>82</v>
       </c>
-      <c r="B115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>83</v>
       </c>
-      <c r="B116" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>9</v>
       </c>
-      <c r="B117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>10</v>
       </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>84</v>
       </c>
-      <c r="B120" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>85</v>
       </c>
-      <c r="B121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>86</v>
       </c>
-      <c r="B122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>23</v>
       </c>
-      <c r="B123" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>24</v>
       </c>
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>87</v>
       </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>88</v>
       </c>
-      <c r="B126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>89</v>
       </c>
-      <c r="B127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B132" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>90</v>
       </c>
-      <c r="B128" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>14</v>
       </c>
-      <c r="B129" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>91</v>
       </c>
-      <c r="B130" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>92</v>
       </c>
-      <c r="B131" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>93</v>
       </c>
-      <c r="B132" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>94</v>
       </c>
-      <c r="B133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>95</v>
       </c>
-      <c r="B134" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>96</v>
       </c>
-      <c r="B135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>97</v>
       </c>
-      <c r="B136" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>98</v>
       </c>
-      <c r="B137" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>99</v>
       </c>
-      <c r="B138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>100</v>
       </c>
-      <c r="B139" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="B144" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>101</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B145" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1903,7 +1955,7 @@
       <selection activeCell="AK2" sqref="A2:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2029,7 +2081,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="410" windowWidth="22690" windowHeight="8220"/>
+    <workbookView xWindow="288" yWindow="408" windowWidth="22692" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="141">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>SSC_MLID</t>
+  </si>
+  <si>
+    <t>CriterionFormula</t>
+  </si>
+  <si>
+    <t>CalculatedCrit</t>
   </si>
 </sst>
 </file>
@@ -771,18 +777,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -790,7 +796,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -806,7 +812,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +820,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -822,7 +828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -830,7 +836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -838,7 +844,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -846,7 +852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -854,7 +860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -862,7 +868,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -870,7 +876,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -878,7 +884,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -886,7 +892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -894,7 +900,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -902,7 +908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -910,7 +916,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -918,7 +924,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -926,7 +932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -934,7 +940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -942,7 +948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -950,7 +956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -958,7 +964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -966,7 +972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -974,7 +980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -982,7 +988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -990,7 +996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1022,7 +1028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>123</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>113</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>87</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>47</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -1422,523 +1428,539 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>49</v>
       </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>51</v>
       </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>52</v>
       </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>53</v>
       </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>54</v>
       </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>55</v>
       </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>56</v>
       </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>57</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>58</v>
       </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>59</v>
       </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B93" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>60</v>
       </c>
-      <c r="B92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>61</v>
       </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>62</v>
       </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>126</v>
       </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>127</v>
       </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>128</v>
       </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>129</v>
       </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>130</v>
       </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>131</v>
       </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>63</v>
       </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B103" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>64</v>
       </c>
-      <c r="B102" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="B104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>65</v>
       </c>
-      <c r="B103" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>66</v>
       </c>
-      <c r="B104" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>67</v>
       </c>
-      <c r="B105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>68</v>
       </c>
-      <c r="B106" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="B108" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>69</v>
       </c>
-      <c r="B107" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>70</v>
       </c>
-      <c r="B108" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>74</v>
       </c>
-      <c r="B109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>75</v>
       </c>
-      <c r="B110" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>76</v>
       </c>
-      <c r="B111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>77</v>
       </c>
-      <c r="B112" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>0</v>
       </c>
-      <c r="B113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>78</v>
       </c>
-      <c r="B114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>1</v>
       </c>
-      <c r="B115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>2</v>
       </c>
-      <c r="B116" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>79</v>
       </c>
-      <c r="B117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>105</v>
       </c>
-      <c r="B118" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>81</v>
       </c>
-      <c r="B119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="B121" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>82</v>
       </c>
-      <c r="B120" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="B122" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>83</v>
       </c>
-      <c r="B121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B123" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>9</v>
       </c>
-      <c r="B122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="B124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>10</v>
       </c>
-      <c r="B123" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="B125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>11</v>
       </c>
-      <c r="B124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="B126" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>84</v>
       </c>
-      <c r="B125" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="B127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>85</v>
       </c>
-      <c r="B126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="B128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>86</v>
       </c>
-      <c r="B127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="B129" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>23</v>
       </c>
-      <c r="B128" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>24</v>
       </c>
-      <c r="B129" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B131" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>87</v>
       </c>
-      <c r="B130" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="B132" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>88</v>
       </c>
-      <c r="B131" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="B133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>89</v>
       </c>
-      <c r="B132" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="B134" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>90</v>
       </c>
-      <c r="B133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>14</v>
       </c>
-      <c r="B134" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="B136" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>91</v>
       </c>
-      <c r="B135" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>92</v>
       </c>
-      <c r="B136" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>93</v>
       </c>
-      <c r="B137" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>94</v>
       </c>
-      <c r="B138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>95</v>
       </c>
-      <c r="B139" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="B141" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>96</v>
       </c>
-      <c r="B140" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>97</v>
       </c>
-      <c r="B141" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>98</v>
       </c>
-      <c r="B142" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B144" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>99</v>
       </c>
-      <c r="B143" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="B145" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>100</v>
       </c>
-      <c r="B144" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>101</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B147" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1955,7 +1977,7 @@
       <selection activeCell="AK2" sqref="A2:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2081,7 +2103,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="140">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -39,12 +39,6 @@
     <t>ProjectIdentifier</t>
   </si>
   <si>
-    <t>IR_FLAG</t>
-  </si>
-  <si>
-    <t>IR_COMMENT</t>
-  </si>
-  <si>
     <t>IR_MLID</t>
   </si>
   <si>
@@ -439,6 +433,9 @@
   </si>
   <si>
     <t>CalculatedCrit</t>
+  </si>
+  <si>
+    <t>Mgmt_Unit</t>
   </si>
 </sst>
 </file>
@@ -777,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,18 +787,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -833,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -841,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -849,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -857,7 +854,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -865,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,159 +870,159 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,423 +1030,423 @@
         <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.55" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>49</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1457,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1465,7 +1462,7 @@
         <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1473,7 +1470,7 @@
         <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1481,7 +1478,7 @@
         <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1489,7 +1486,7 @@
         <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1497,7 +1494,7 @@
         <v>55</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1505,7 +1502,7 @@
         <v>56</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1513,7 +1510,7 @@
         <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1521,7 +1518,7 @@
         <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1529,7 +1526,7 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1537,23 +1534,23 @@
         <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1558,7 @@
         <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1569,7 +1566,7 @@
         <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1577,7 +1574,7 @@
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,23 +1582,23 @@
         <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1609,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1617,7 +1614,7 @@
         <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1625,7 +1622,7 @@
         <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1633,7 +1630,7 @@
         <v>66</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1641,7 +1638,7 @@
         <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1649,23 +1646,23 @@
         <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1673,7 +1670,7 @@
         <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1681,55 +1678,55 @@
         <v>75</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1737,15 +1734,15 @@
         <v>79</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B120" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1753,23 +1750,23 @@
         <v>81</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1777,23 +1774,23 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -1801,39 +1798,39 @@
         <v>84</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B130" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B131" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1841,7 +1838,7 @@
         <v>87</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -1849,31 +1846,31 @@
         <v>88</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -1881,7 +1878,7 @@
         <v>91</v>
       </c>
       <c r="B137" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -1889,7 +1886,7 @@
         <v>92</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -1897,7 +1894,7 @@
         <v>93</v>
       </c>
       <c r="B139" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -1905,7 +1902,7 @@
         <v>94</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -1913,7 +1910,7 @@
         <v>95</v>
       </c>
       <c r="B141" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -1921,7 +1918,7 @@
         <v>96</v>
       </c>
       <c r="B142" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -1929,7 +1926,7 @@
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -1937,7 +1934,7 @@
         <v>98</v>
       </c>
       <c r="B144" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -1945,23 +1942,7 @@
         <v>99</v>
       </c>
       <c r="B145" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1981,22 +1962,22 @@
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -2005,91 +1986,91 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>80</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
         <v>82</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>83</v>
       </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>84</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
         <v>85</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>86</v>
       </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>87</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>88</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>91</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>93</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>96</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>98</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>99</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -436,6 +436,36 @@
   </si>
   <si>
     <t>Mgmt_Unit</t>
+  </si>
+  <si>
+    <t>TargetFraction</t>
+  </si>
+  <si>
+    <t>IR_Cat</t>
+  </si>
+  <si>
+    <t>IRParameterName</t>
+  </si>
+  <si>
+    <t>ParameterGroupName</t>
+  </si>
+  <si>
+    <t>TableDescription</t>
+  </si>
+  <si>
+    <t>ParameterQualifier</t>
+  </si>
+  <si>
+    <t>AsmntAggPeriod</t>
+  </si>
+  <si>
+    <t>AsmntAggPeriodUnit</t>
+  </si>
+  <si>
+    <t>siteSpecificAssessment</t>
+  </si>
+  <si>
+    <t>MLIDExceedanceCount</t>
   </si>
 </sst>
 </file>
@@ -774,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1683,7 +1713,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B113" t="s">
         <v>100</v>
@@ -1691,7 +1721,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="B114" t="s">
         <v>100</v>
@@ -1699,7 +1729,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B115" t="s">
         <v>100</v>
@@ -1707,7 +1737,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B116" t="s">
         <v>100</v>
@@ -1715,7 +1745,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
         <v>100</v>
@@ -1723,7 +1753,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
         <v>100</v>
@@ -1731,7 +1761,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>100</v>
@@ -1739,7 +1769,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
         <v>100</v>
@@ -1747,7 +1777,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
         <v>100</v>
@@ -1755,7 +1785,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
         <v>100</v>
@@ -1763,7 +1793,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
         <v>100</v>
@@ -1771,7 +1801,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B124" t="s">
         <v>100</v>
@@ -1779,7 +1809,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B125" t="s">
         <v>100</v>
@@ -1787,7 +1817,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B126" t="s">
         <v>100</v>
@@ -1795,7 +1825,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B127" t="s">
         <v>100</v>
@@ -1803,7 +1833,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
         <v>100</v>
@@ -1811,7 +1841,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
         <v>100</v>
@@ -1819,7 +1849,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
         <v>100</v>
@@ -1827,7 +1857,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
         <v>100</v>
@@ -1835,7 +1865,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
         <v>100</v>
@@ -1843,7 +1873,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B133" t="s">
         <v>100</v>
@@ -1851,7 +1881,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
         <v>100</v>
@@ -1859,7 +1889,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
         <v>100</v>
@@ -1867,7 +1897,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="B136" t="s">
         <v>100</v>
@@ -1875,7 +1905,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>100</v>
@@ -1883,7 +1913,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B138" t="s">
         <v>100</v>
@@ -1891,7 +1921,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
         <v>100</v>
@@ -1899,7 +1929,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
         <v>100</v>
@@ -1907,7 +1937,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B141" t="s">
         <v>100</v>
@@ -1915,7 +1945,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
         <v>100</v>
@@ -1923,7 +1953,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B143" t="s">
         <v>100</v>
@@ -1931,17 +1961,9 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B144" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>99</v>
-      </c>
-      <c r="B145" t="s">
         <v>100</v>
       </c>
     </row>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="150">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -804,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>71</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
         <v>71</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
         <v>71</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
         <v>71</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
         <v>71</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
         <v>71</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
         <v>71</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
         <v>71</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
         <v>71</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
         <v>71</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
         <v>71</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
         <v>71</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
         <v>71</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
         <v>71</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>71</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
         <v>71</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
         <v>71</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
         <v>71</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B88" t="s">
         <v>71</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
         <v>71</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B90" t="s">
         <v>71</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B91" t="s">
         <v>71</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B92" t="s">
         <v>71</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s">
         <v>71</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s">
         <v>71</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
         <v>71</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
         <v>71</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
         <v>71</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
         <v>71</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
         <v>71</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
         <v>71</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
         <v>71</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
         <v>71</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
         <v>71</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
         <v>71</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
         <v>71</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B107" t="s">
         <v>71</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
@@ -1681,23 +1681,23 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B111" t="s">
         <v>100</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
         <v>100</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
         <v>100</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B114" t="s">
         <v>100</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
         <v>100</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
         <v>100</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
         <v>100</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B118" t="s">
         <v>100</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="B119" t="s">
         <v>100</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
         <v>100</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>100</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
         <v>100</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
         <v>100</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
         <v>100</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
         <v>100</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
         <v>100</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="B127" t="s">
         <v>100</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="B128" t="s">
         <v>100</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B129" t="s">
         <v>100</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B130" t="s">
         <v>100</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B131" t="s">
         <v>100</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
         <v>100</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
         <v>100</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>100</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="B135" t="s">
         <v>100</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>100</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
         <v>100</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138" t="s">
         <v>100</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
         <v>100</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
         <v>100</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B141" t="s">
         <v>100</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
         <v>100</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B143" t="s">
         <v>100</v>
@@ -1961,9 +1961,25 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>98</v>
+      </c>
+      <c r="B145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>99</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B146" t="s">
         <v>100</v>
       </c>
     </row>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="410" windowWidth="19420" windowHeight="8090"/>
+    <workbookView xWindow="288" yWindow="408" windowWidth="19416" windowHeight="8088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="167">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -487,6 +487,36 @@
   </si>
   <si>
     <t>MethodDescriptionText</t>
+  </si>
+  <si>
+    <t>IR_DetCond_FLAG</t>
+  </si>
+  <si>
+    <t>IR_DetCond_COMMENT</t>
+  </si>
+  <si>
+    <t>IR_ActMedia_FLAG</t>
+  </si>
+  <si>
+    <t>IR_ActMedia_COMMENT</t>
+  </si>
+  <si>
+    <t>IR_DataPrep_FLAG</t>
+  </si>
+  <si>
+    <t>IR_DataPrep_COMMENT</t>
+  </si>
+  <si>
+    <t>IR_Site_FLAG</t>
+  </si>
+  <si>
+    <t>IR_Site_COMMENT</t>
+  </si>
+  <si>
+    <t>IR_Unit_FLAG</t>
+  </si>
+  <si>
+    <t>IR_Unit_Comment</t>
   </si>
 </sst>
 </file>
@@ -825,18 +855,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B153"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -844,7 +874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -852,7 +882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -860,7 +890,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -868,1195 +898,1283 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>107</v>
       </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>106</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>126</v>
       </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>124</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>125</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>128</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>139</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>140</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>154</v>
       </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>150</v>
       </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>149</v>
       </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>152</v>
       </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>153</v>
       </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>130</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>131</v>
       </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>15</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>18</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>19</v>
       </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>155</v>
       </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>21</v>
       </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>33</v>
       </c>
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>101</v>
       </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>104</v>
       </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>105</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>41</v>
       </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>143</v>
       </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>144</v>
       </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>22</v>
       </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>108</v>
       </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>109</v>
       </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>110</v>
       </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>25</v>
       </c>
-      <c r="B67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>111</v>
       </c>
-      <c r="B68" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>26</v>
       </c>
-      <c r="B69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>146</v>
       </c>
-      <c r="B71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>27</v>
       </c>
-      <c r="B72" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>28</v>
       </c>
-      <c r="B75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>29</v>
       </c>
-      <c r="B76" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>30</v>
       </c>
-      <c r="B77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>31</v>
       </c>
-      <c r="B78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>113</v>
       </c>
-      <c r="B80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>156</v>
       </c>
-      <c r="B82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>32</v>
       </c>
-      <c r="B83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>115</v>
       </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>35</v>
       </c>
-      <c r="B86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>36</v>
       </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>116</v>
       </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>10</v>
       </c>
-      <c r="B90" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>42</v>
       </c>
-      <c r="B91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>43</v>
       </c>
-      <c r="B92" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>44</v>
       </c>
-      <c r="B93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>45</v>
       </c>
-      <c r="B94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>46</v>
       </c>
-      <c r="B95" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>47</v>
       </c>
-      <c r="B96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>48</v>
       </c>
-      <c r="B97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>49</v>
       </c>
-      <c r="B98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>50</v>
       </c>
-      <c r="B99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>51</v>
       </c>
-      <c r="B100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>52</v>
       </c>
-      <c r="B101" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>53</v>
       </c>
-      <c r="B102" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>54</v>
       </c>
-      <c r="B103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>117</v>
       </c>
-      <c r="B104" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>118</v>
       </c>
-      <c r="B105" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B116" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>119</v>
       </c>
-      <c r="B106" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="B117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>120</v>
       </c>
-      <c r="B107" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>121</v>
       </c>
-      <c r="B108" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>122</v>
       </c>
-      <c r="B109" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>55</v>
       </c>
-      <c r="B110" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>56</v>
       </c>
-      <c r="B111" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>57</v>
       </c>
-      <c r="B112" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>58</v>
       </c>
-      <c r="B113" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>59</v>
       </c>
-      <c r="B114" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>60</v>
       </c>
-      <c r="B115" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>61</v>
       </c>
-      <c r="B116" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B127" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>62</v>
       </c>
-      <c r="B117" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="B128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>66</v>
       </c>
-      <c r="B118" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B129" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>67</v>
       </c>
-      <c r="B119" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="B130" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>68</v>
       </c>
-      <c r="B120" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="B131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>69</v>
       </c>
-      <c r="B121" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B132" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
-      <c r="B122" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>1</v>
       </c>
-      <c r="B123" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="B134" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>2</v>
       </c>
-      <c r="B124" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="B135" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>97</v>
       </c>
-      <c r="B125" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="B136" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>73</v>
       </c>
-      <c r="B126" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="B137" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>7</v>
       </c>
-      <c r="B127" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="B138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>8</v>
       </c>
-      <c r="B128" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B139" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>76</v>
       </c>
-      <c r="B129" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B140" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>77</v>
       </c>
-      <c r="B130" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="B141" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>90</v>
       </c>
-      <c r="B131" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="B142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>91</v>
       </c>
-      <c r="B132" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="B143" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>95</v>
       </c>
-      <c r="B133" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>78</v>
       </c>
-      <c r="B134" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="B145" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>20</v>
       </c>
-      <c r="B135" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="B146" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B147" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="B148" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="B149" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>127</v>
       </c>
-      <c r="B139" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="B150" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B151" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>133</v>
       </c>
-      <c r="B141" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="B152" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>79</v>
       </c>
-      <c r="B142" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B153" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>134</v>
       </c>
-      <c r="B143" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="B154" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>139</v>
       </c>
-      <c r="B144" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B155" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>140</v>
       </c>
-      <c r="B145" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B156" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>128</v>
       </c>
-      <c r="B146" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B157" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>141</v>
       </c>
-      <c r="B147" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B158" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>82</v>
       </c>
-      <c r="B148" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B159" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>12</v>
       </c>
-      <c r="B149" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>88</v>
       </c>
-      <c r="B150" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B161" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>142</v>
       </c>
-      <c r="B151" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B162" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>92</v>
       </c>
-      <c r="B152" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="B163" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>93</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B164" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2074,7 +2192,7 @@
       <selection activeCell="AK2" sqref="A2:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2200,7 +2318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="168">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>IR_Unit_Comment</t>
+  </si>
+  <si>
+    <t>MonitoringLocationIdentifier</t>
   </si>
 </sst>
 </file>
@@ -855,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B138" t="s">
         <v>94</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
         <v>94</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
         <v>94</v>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B141" t="s">
         <v>94</v>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B142" t="s">
         <v>94</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
@@ -2012,7 +2015,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B144" t="s">
         <v>94</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B145" t="s">
         <v>94</v>
@@ -2028,7 +2031,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
         <v>94</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
         <v>94</v>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B148" t="s">
         <v>94</v>
@@ -2052,7 +2055,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B149" t="s">
         <v>94</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B150" t="s">
         <v>94</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B151" t="s">
         <v>94</v>
@@ -2076,7 +2079,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B152" t="s">
         <v>94</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B153" t="s">
         <v>94</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="B154" t="s">
         <v>94</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B155" t="s">
         <v>94</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
@@ -2116,7 +2119,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B158" t="s">
         <v>94</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B162" t="s">
         <v>94</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
@@ -2172,9 +2175,17 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>92</v>
+      </c>
+      <c r="B164" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>93</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>94</v>
       </c>
     </row>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -520,6 +520,9 @@
   </si>
   <si>
     <t>MonitoringLocationIdentifier</t>
+  </si>
+  <si>
+    <t>IR_Screen_FLAG</t>
   </si>
 </sst>
 </file>
@@ -858,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2103,7 +2106,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B155" t="s">
         <v>94</v>
@@ -2111,7 +2114,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
@@ -2119,7 +2122,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
@@ -2127,7 +2130,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B158" t="s">
         <v>94</v>
@@ -2135,7 +2138,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
@@ -2159,7 +2162,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B162" t="s">
         <v>94</v>
@@ -2167,7 +2170,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B164" t="s">
         <v>94</v>
@@ -2183,9 +2186,25 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>92</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>93</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B167" t="s">
         <v>94</v>
       </c>
     </row>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="169">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -861,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
         <v>65</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
         <v>65</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>65</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
         <v>65</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
         <v>65</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" t="s">
         <v>65</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="B100" t="s">
         <v>65</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B101" t="s">
         <v>65</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
         <v>65</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>65</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
         <v>65</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>65</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>65</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B122" t="s">
         <v>65</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B123" t="s">
         <v>65</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
         <v>65</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" t="s">
         <v>65</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B127" t="s">
         <v>65</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
         <v>65</v>
@@ -1898,15 +1898,15 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B130" t="s">
         <v>94</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B131" t="s">
         <v>94</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
         <v>94</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
         <v>94</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>94</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" t="s">
         <v>94</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B136" t="s">
         <v>94</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B137" t="s">
         <v>94</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
         <v>94</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B139" t="s">
         <v>94</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>94</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>94</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B142" t="s">
         <v>94</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B144" t="s">
         <v>94</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B145" t="s">
         <v>94</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B146" t="s">
         <v>94</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="B147" t="s">
         <v>94</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
         <v>94</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B149" t="s">
         <v>94</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B150" t="s">
         <v>94</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B151" t="s">
         <v>94</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B152" t="s">
         <v>94</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B153" t="s">
         <v>94</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B154" t="s">
         <v>94</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="B155" t="s">
         <v>94</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B158" t="s">
         <v>94</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B162" t="s">
         <v>94</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
         <v>94</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s">
         <v>94</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B166" t="s">
         <v>94</v>
@@ -2202,9 +2202,17 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>93</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>94</v>
       </c>
     </row>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>IR_Screen_FLAG</t>
+  </si>
+  <si>
+    <t>ASSESS_ID2016</t>
+  </si>
+  <si>
+    <t>RESEG2020</t>
   </si>
 </sst>
 </file>
@@ -861,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +912,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -914,7 +920,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -922,7 +928,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -930,7 +936,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -938,7 +944,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -946,7 +952,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -954,7 +960,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -962,7 +968,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -978,7 +984,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -986,7 +992,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -994,7 +1000,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -1002,7 +1008,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -1010,7 +1016,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -1018,7 +1024,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -1026,7 +1032,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1042,7 +1048,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -1050,7 +1056,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -1066,7 +1072,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -1074,7 +1080,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>65</v>
@@ -1082,7 +1088,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>65</v>
@@ -1090,7 +1096,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
         <v>65</v>
@@ -1098,7 +1104,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
@@ -1106,7 +1112,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
@@ -1114,7 +1120,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -1122,7 +1128,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -1130,7 +1136,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
@@ -1138,7 +1144,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1146,7 +1152,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>65</v>
@@ -1154,7 +1160,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -1162,7 +1168,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
@@ -1178,7 +1184,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>65</v>
@@ -1186,7 +1192,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
@@ -1202,7 +1208,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
@@ -1226,7 +1232,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -1234,7 +1240,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
@@ -1242,7 +1248,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -1258,7 +1264,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
@@ -1266,7 +1272,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -1282,7 +1288,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -1298,7 +1304,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -1306,7 +1312,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -1314,7 +1320,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -1338,7 +1344,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -1346,7 +1352,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -1354,7 +1360,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -1362,7 +1368,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1378,7 +1384,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1386,7 +1392,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -1394,7 +1400,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -1402,7 +1408,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -1410,7 +1416,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -1418,7 +1424,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -1442,7 +1448,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
@@ -1458,7 +1464,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
@@ -1474,7 +1480,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
@@ -1498,7 +1504,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
@@ -1506,7 +1512,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
@@ -1514,7 +1520,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -1538,7 +1544,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
@@ -1546,7 +1552,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
         <v>65</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
@@ -1594,7 +1600,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
         <v>65</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
         <v>65</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
@@ -1626,7 +1632,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
         <v>65</v>
@@ -1634,7 +1640,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
@@ -1642,7 +1648,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="B97" t="s">
         <v>65</v>
@@ -1650,7 +1656,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
         <v>65</v>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
         <v>65</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
         <v>65</v>
@@ -1682,7 +1688,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -1698,7 +1704,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -1706,7 +1712,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
@@ -1722,7 +1728,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -1730,7 +1736,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -1754,7 +1760,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -1786,7 +1792,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -1794,7 +1800,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
         <v>65</v>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s">
         <v>65</v>
@@ -1810,7 +1816,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>65</v>
@@ -1818,7 +1824,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>65</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>65</v>
@@ -1842,7 +1848,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>65</v>
@@ -1850,7 +1856,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>65</v>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
@@ -1866,7 +1872,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
         <v>65</v>
@@ -1874,7 +1880,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s">
         <v>65</v>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s">
         <v>65</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B128" t="s">
         <v>65</v>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B129" t="s">
         <v>65</v>
@@ -1906,23 +1912,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B132" t="s">
         <v>94</v>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B133" t="s">
         <v>94</v>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B134" t="s">
         <v>94</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B135" t="s">
         <v>94</v>
@@ -1954,7 +1960,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
         <v>94</v>
@@ -1962,7 +1968,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
         <v>94</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
         <v>94</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
         <v>94</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B140" t="s">
         <v>94</v>
@@ -1994,7 +2000,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B141" t="s">
         <v>94</v>
@@ -2002,7 +2008,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
         <v>94</v>
@@ -2010,7 +2016,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B144" t="s">
         <v>94</v>
@@ -2026,7 +2032,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B145" t="s">
         <v>94</v>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B146" t="s">
         <v>94</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B147" t="s">
         <v>94</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B148" t="s">
         <v>94</v>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B149" t="s">
         <v>94</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
         <v>94</v>
@@ -2074,7 +2080,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B151" t="s">
         <v>94</v>
@@ -2082,7 +2088,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B152" t="s">
         <v>94</v>
@@ -2090,7 +2096,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
         <v>94</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B154" t="s">
         <v>94</v>
@@ -2106,7 +2112,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B155" t="s">
         <v>94</v>
@@ -2114,7 +2120,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
@@ -2122,7 +2128,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B158" t="s">
         <v>94</v>
@@ -2138,7 +2144,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
@@ -2146,7 +2152,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
@@ -2154,7 +2160,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
@@ -2162,7 +2168,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B162" t="s">
         <v>94</v>
@@ -2170,7 +2176,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B164" t="s">
         <v>94</v>
@@ -2186,7 +2192,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B165" t="s">
         <v>94</v>
@@ -2194,7 +2200,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
         <v>94</v>
@@ -2202,7 +2208,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B167" t="s">
         <v>94</v>
@@ -2210,9 +2216,25 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>92</v>
+      </c>
+      <c r="B169" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>93</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B170" t="s">
         <v>94</v>
       </c>
     </row>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehinman\Documents\GitHub\irTools\inst\extdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA4A6F-5786-4FCA-A0CB-5767526845D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="408" windowWidth="19416" windowHeight="8088"/>
+    <workbookView xWindow="288" yWindow="408" windowWidth="19416" windowHeight="8088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="172">
   <si>
     <t>DWQ WMU</t>
   </si>
@@ -529,12 +535,15 @@
   </si>
   <si>
     <t>RESEG2020</t>
+  </si>
+  <si>
+    <t>SS_calc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,6 +584,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -623,7 +635,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -656,9 +668,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,6 +720,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -866,11 +912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,7 +1238,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -1200,7 +1246,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
@@ -1208,7 +1254,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
@@ -1216,7 +1262,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
@@ -1224,7 +1270,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
@@ -1232,7 +1278,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
@@ -1240,7 +1286,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
@@ -1248,7 +1294,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -1256,7 +1302,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
         <v>65</v>
@@ -1264,7 +1310,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
         <v>65</v>
@@ -1272,7 +1318,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -1280,7 +1326,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -1288,7 +1334,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -1296,7 +1342,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
         <v>65</v>
@@ -1304,7 +1350,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>65</v>
@@ -1312,7 +1358,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -1320,7 +1366,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
         <v>65</v>
@@ -1328,7 +1374,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
         <v>65</v>
@@ -1336,7 +1382,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>65</v>
@@ -1344,7 +1390,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
         <v>65</v>
@@ -1352,7 +1398,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
@@ -1360,7 +1406,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -1368,7 +1414,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1376,7 +1422,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
         <v>65</v>
@@ -1384,7 +1430,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -1392,7 +1438,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
@@ -1400,7 +1446,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -1408,7 +1454,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
         <v>65</v>
@@ -1416,7 +1462,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>65</v>
@@ -1424,7 +1470,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
         <v>65</v>
@@ -1432,7 +1478,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
         <v>65</v>
@@ -1440,7 +1486,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
@@ -1448,7 +1494,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
         <v>65</v>
@@ -1456,7 +1502,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
         <v>65</v>
@@ -1464,7 +1510,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
         <v>65</v>
@@ -1472,7 +1518,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
         <v>65</v>
@@ -1480,7 +1526,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
         <v>65</v>
@@ -1488,7 +1534,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
         <v>65</v>
@@ -1496,7 +1542,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>65</v>
@@ -1504,7 +1550,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
@@ -1512,7 +1558,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
         <v>65</v>
@@ -1520,7 +1566,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
         <v>65</v>
@@ -1528,7 +1574,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
         <v>65</v>
@@ -1536,7 +1582,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B83" t="s">
         <v>65</v>
@@ -1544,7 +1590,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
         <v>65</v>
@@ -1552,7 +1598,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
         <v>65</v>
@@ -1560,7 +1606,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
         <v>65</v>
@@ -1568,7 +1614,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
         <v>65</v>
@@ -1576,7 +1622,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -1584,7 +1630,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -1592,7 +1638,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
         <v>65</v>
@@ -1600,7 +1646,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
         <v>65</v>
@@ -1608,7 +1654,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B92" t="s">
         <v>65</v>
@@ -1616,7 +1662,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
         <v>65</v>
@@ -1624,7 +1670,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
         <v>65</v>
@@ -1632,7 +1678,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
         <v>65</v>
@@ -1640,7 +1686,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
@@ -1648,7 +1694,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
         <v>65</v>
@@ -1656,7 +1702,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
         <v>65</v>
@@ -1664,7 +1710,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
@@ -1672,7 +1718,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
         <v>65</v>
@@ -1680,7 +1726,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
         <v>65</v>
@@ -1688,7 +1734,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
         <v>65</v>
@@ -1696,7 +1742,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -1704,7 +1750,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
         <v>65</v>
@@ -1712,7 +1758,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
         <v>65</v>
@@ -1720,7 +1766,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
         <v>65</v>
@@ -1728,7 +1774,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B107" t="s">
         <v>65</v>
@@ -1736,7 +1782,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B108" t="s">
         <v>65</v>
@@ -1744,7 +1790,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
         <v>65</v>
@@ -1752,7 +1798,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
         <v>65</v>
@@ -1760,7 +1806,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B111" t="s">
         <v>65</v>
@@ -1768,7 +1814,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
         <v>65</v>
@@ -1776,7 +1822,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
         <v>65</v>
@@ -1784,7 +1830,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
         <v>65</v>
@@ -1792,7 +1838,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
         <v>65</v>
@@ -1800,7 +1846,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
         <v>65</v>
@@ -1808,7 +1854,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B117" t="s">
         <v>65</v>
@@ -1816,7 +1862,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
         <v>65</v>
@@ -1824,7 +1870,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
         <v>65</v>
@@ -1832,7 +1878,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
         <v>65</v>
@@ -1840,7 +1886,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" t="s">
         <v>65</v>
@@ -1848,7 +1894,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" t="s">
         <v>65</v>
@@ -1856,7 +1902,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" t="s">
         <v>65</v>
@@ -1864,7 +1910,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
         <v>65</v>
@@ -1872,7 +1918,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B125" t="s">
         <v>65</v>
@@ -1880,7 +1926,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B126" t="s">
         <v>65</v>
@@ -1888,7 +1934,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B127" t="s">
         <v>65</v>
@@ -1896,7 +1942,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B128" t="s">
         <v>65</v>
@@ -1904,7 +1950,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B129" t="s">
         <v>65</v>
@@ -1912,7 +1958,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
         <v>65</v>
@@ -1920,7 +1966,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
         <v>65</v>
@@ -1928,23 +1974,23 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B134" t="s">
         <v>94</v>
@@ -1952,7 +1998,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B135" t="s">
         <v>94</v>
@@ -1960,7 +2006,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s">
         <v>94</v>
@@ -1968,7 +2014,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B137" t="s">
         <v>94</v>
@@ -1976,7 +2022,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
         <v>94</v>
@@ -1984,7 +2030,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B139" t="s">
         <v>94</v>
@@ -1992,7 +2038,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
         <v>94</v>
@@ -2000,7 +2046,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="B141" t="s">
         <v>94</v>
@@ -2008,7 +2054,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="B142" t="s">
         <v>94</v>
@@ -2016,7 +2062,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
@@ -2024,7 +2070,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
         <v>94</v>
@@ -2032,7 +2078,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>94</v>
@@ -2040,7 +2086,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B146" t="s">
         <v>94</v>
@@ -2048,7 +2094,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B147" t="s">
         <v>94</v>
@@ -2056,7 +2102,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B148" t="s">
         <v>94</v>
@@ -2064,7 +2110,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B149" t="s">
         <v>94</v>
@@ -2072,7 +2118,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="B150" t="s">
         <v>94</v>
@@ -2080,7 +2126,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B151" t="s">
         <v>94</v>
@@ -2088,7 +2134,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
         <v>94</v>
@@ -2096,7 +2142,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B153" t="s">
         <v>94</v>
@@ -2104,7 +2150,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B154" t="s">
         <v>94</v>
@@ -2112,7 +2158,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B155" t="s">
         <v>94</v>
@@ -2120,7 +2166,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B156" t="s">
         <v>94</v>
@@ -2128,7 +2174,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
@@ -2136,7 +2182,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B158" t="s">
         <v>94</v>
@@ -2144,7 +2190,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
         <v>94</v>
@@ -2152,7 +2198,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
@@ -2160,7 +2206,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
@@ -2168,7 +2214,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B162" t="s">
         <v>94</v>
@@ -2176,7 +2222,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B163" t="s">
         <v>94</v>
@@ -2184,7 +2230,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B164" t="s">
         <v>94</v>
@@ -2192,7 +2238,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B165" t="s">
         <v>94</v>
@@ -2200,7 +2246,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B166" t="s">
         <v>94</v>
@@ -2208,7 +2254,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B167" t="s">
         <v>94</v>
@@ -2216,7 +2262,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
         <v>94</v>
@@ -2224,7 +2270,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B169" t="s">
         <v>94</v>
@@ -2232,9 +2278,25 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>142</v>
+      </c>
+      <c r="B170" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>92</v>
+      </c>
+      <c r="B171" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>93</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B172" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2245,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2373,7 +2435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/inst/extdata/IR_export_translations.xlsx
+++ b/inst/extdata/IR_export_translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehinman\Documents\GitHub\irTools\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA4A6F-5786-4FCA-A0CB-5767526845D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ACFA20-D4B9-4011-9C2E-EC5209588A20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="408" windowWidth="19416" windowHeight="8088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="290" yWindow="410" windowWidth="19420" windowHeight="8090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -429,9 +429,6 @@
     <t>IR_Cat</t>
   </si>
   <si>
-    <t>IRParameterName</t>
-  </si>
-  <si>
     <t>ParameterGroupName</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>SS_calc</t>
+  </si>
+  <si>
+    <t>RuleParameterName</t>
   </si>
 </sst>
 </file>
@@ -915,16 +915,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -932,7 +932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -940,7 +940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -948,7 +948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -956,23 +956,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>169</v>
       </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>170</v>
-      </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -980,7 +980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -996,7 +996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1012,15 +1012,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1036,23 +1036,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>163</v>
       </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>164</v>
-      </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1140,23 +1140,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>165</v>
       </c>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -1236,23 +1236,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -1260,47 +1260,47 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>139</v>
       </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>140</v>
-      </c>
       <c r="B44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1308,31 +1308,31 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>151</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>152</v>
       </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>153</v>
-      </c>
       <c r="B51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>130</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -1404,15 +1404,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -1428,23 +1428,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>157</v>
       </c>
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>101</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -1500,23 +1500,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>143</v>
       </c>
-      <c r="B73" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
       <c r="B74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -1572,23 +1572,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>145</v>
       </c>
-      <c r="B82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>146</v>
-      </c>
       <c r="B83" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -1596,55 +1596,55 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>147</v>
       </c>
-      <c r="B85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>148</v>
-      </c>
       <c r="B86" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>159</v>
       </c>
-      <c r="B87" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>160</v>
       </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>161</v>
       </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>162</v>
-      </c>
       <c r="B90" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>29</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>31</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -1700,15 +1700,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>32</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>35</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>39</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>46</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>49</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>50</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>52</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>53</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>54</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>56</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>61</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>62</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>97</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -2060,15 +2060,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>76</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>77</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>91</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>78</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -2140,31 +2140,31 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>135</v>
       </c>
-      <c r="B153" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>136</v>
       </c>
-      <c r="B154" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>137</v>
-      </c>
       <c r="B155" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -2172,15 +2172,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B157" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>133</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -2196,23 +2196,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B160" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>134</v>
       </c>
@@ -2220,23 +2220,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
+        <v>138</v>
+      </c>
+      <c r="B163" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>139</v>
       </c>
-      <c r="B163" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>140</v>
-      </c>
       <c r="B164" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>128</v>
       </c>
@@ -2244,15 +2244,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B166" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>82</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>88</v>
       </c>
@@ -2276,15 +2276,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B170" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>92</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>93</v>
       </c>
@@ -2314,9 +2314,9 @@
       <selection activeCell="AK2" sqref="A2:AK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2440,7 +2440,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
